--- a/biology/Zoologie/Homonota_darwinii/Homonota_darwinii.xlsx
+++ b/biology/Zoologie/Homonota_darwinii/Homonota_darwinii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homonota darwinii est une espèce de geckos de la famille des Phyllodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homonota darwinii est une espèce de geckos de la famille des Phyllodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Argentine dans les provinces de Buenos Aires et de Rio Negro.</t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2013) :
 Homonota darwinii darwinii Boulenger, 1885
 Homonota darwinii macrocephala Cei, 1978</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Darwin[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Darwin.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1885 : Catalogue of the lizards in the British Museum (Natural History) I. Geckonidae, Eublepharidae, Uroplatidae, Pygopodidae, Agamidae, Second edition, London, vol. 1, p. 1-436 (texte intégral).
 Cei, 1978 :  Homonota andicola, nueva especie de Gekkonidae (Sauria, Reptilia) de la regiôn Andina de Uspallata, Argentina. Publicaciones Ocasionales Instituto de Biologia Animal, Universidad Nacional de Cuyo, Mendoza, Argentina, no 1, p. 1—2.</t>
